--- a/data/trans_bre/P16A01-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.40524487175281</v>
+        <v>-1.46451533682545</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.009212974610602</v>
+        <v>-7.565239825563749</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.274272750755252</v>
+        <v>-5.499736384309944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.545070728603869</v>
+        <v>-1.535325314126689</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1871671096395717</v>
+        <v>-0.2261812238237654</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5663868811341347</v>
+        <v>-0.552160337634663</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5279286529887369</v>
+        <v>-0.5279160584869693</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2036816506240107</v>
+        <v>-0.2098640048188477</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.063271860104053</v>
+        <v>6.132260707637688</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.795914709951438</v>
+        <v>1.727819275400441</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.466742127020056</v>
+        <v>2.140215498093346</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.617694715878374</v>
+        <v>4.473309756608418</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.26231637825046</v>
+        <v>1.214595113222663</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2228382940717544</v>
+        <v>0.2189350328017688</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3876260440294813</v>
+        <v>0.3298021247200364</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.172907625264324</v>
+        <v>1.125594420088454</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.423250778552994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-2.048512692685034</v>
+        <v>-2.048512692685033</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1428331393798738</v>
@@ -749,7 +749,7 @@
         <v>0.1886875946291161</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2426698630114004</v>
+        <v>-0.2426698630114003</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.841660244593545</v>
+        <v>-2.859851342622486</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.376125704486152</v>
+        <v>-2.291110033867587</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.407996224840106</v>
+        <v>-2.673757436045384</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.473187357143483</v>
+        <v>-5.454292809236619</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3338383739807668</v>
+        <v>-0.338542069560684</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.268521374636998</v>
+        <v>-0.2651567486094057</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2481978711938766</v>
+        <v>-0.2921685645983813</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5144683888193854</v>
+        <v>-0.513191775237812</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.853985131067653</v>
+        <v>4.914005226759696</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.56891799649847</v>
+        <v>6.423876027815097</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.544557183953694</v>
+        <v>5.252070368388255</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.181973632198247</v>
+        <v>1.04049216646746</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.037197415682121</v>
+        <v>1.104794492335365</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.301160846394999</v>
+        <v>1.172958536786091</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9918832641948903</v>
+        <v>0.9036856155829645</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.190659057620384</v>
+        <v>0.184258814135532</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.030635148649546</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.850345197416404</v>
+        <v>1.850345197416407</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3295600616782882</v>
@@ -849,7 +849,7 @@
         <v>0.1205057438811508</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2031901967454379</v>
+        <v>0.2031901967454382</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.277058021463103</v>
+        <v>-2.032304814335276</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.117419898087769</v>
+        <v>-5.161396077243152</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.459834392286783</v>
+        <v>-3.793387093829727</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.388835268423265</v>
+        <v>-2.649568270622083</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2891704979052797</v>
+        <v>-0.27139188461353</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5210515770141777</v>
+        <v>-0.5152397757800486</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3756102375168735</v>
+        <v>-0.3938448605731564</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2437731887407004</v>
+        <v>-0.2549405878825619</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.234621611567917</v>
+        <v>9.19064297717145</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.644620746834128</v>
+        <v>3.624126395272266</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.892921148129429</v>
+        <v>6.663029665101969</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.819386825951705</v>
+        <v>6.522561473717263</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.228607846606202</v>
+        <v>1.330335915344591</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5272205981185831</v>
+        <v>0.4810088318467375</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9816574258256203</v>
+        <v>0.9037412538903834</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9357520692659107</v>
+        <v>0.8948061427671157</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.1595179808326505</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.31386060918408</v>
+        <v>-1.313860609184081</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0003771086199973931</v>
@@ -949,7 +949,7 @@
         <v>-0.02025708223745447</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.174438012425962</v>
+        <v>-0.1744380124259621</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.385126541553402</v>
+        <v>-2.369035161598582</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.378351860252704</v>
+        <v>-2.576419621054561</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.604991355149026</v>
+        <v>-2.729071098625193</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.661227470868775</v>
+        <v>-3.79100140586146</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3099465892536152</v>
+        <v>-0.3036503439927919</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2207360052224897</v>
+        <v>-0.2451778048705235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2874936720411952</v>
+        <v>-0.2972657210523452</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3993273621470068</v>
+        <v>-0.4128722688620872</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.360189421359066</v>
+        <v>2.285288781266749</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.571887205558392</v>
+        <v>3.386748300323478</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.167494842111059</v>
+        <v>2.291177929163297</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7453409930958416</v>
+        <v>0.9690592419696831</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3915581509033136</v>
+        <v>0.3670676083478356</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3975745465021096</v>
+        <v>0.3730558764091339</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3232116577308264</v>
+        <v>0.3334594355456416</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.12313582300977</v>
+        <v>0.1670063046751759</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.297627504267192</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.643397879501182</v>
+        <v>3.643397879501181</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.2178056841236624</v>
@@ -1049,7 +1049,7 @@
         <v>0.188819554507646</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5918465825184248</v>
+        <v>0.5918465825184247</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.019842736518282</v>
+        <v>-5.130103850489216</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.003658955667491</v>
+        <v>-4.839602995191276</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.930928380917962</v>
+        <v>-1.296786946348815</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.559581860336514</v>
+        <v>0.6271597086359266</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5440088191588529</v>
+        <v>-0.5389053599836889</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4564903707023071</v>
+        <v>-0.4438941143164736</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2211743394300884</v>
+        <v>-0.1560814976937852</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.06191833002489209</v>
+        <v>0.07214526074985024</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.478706419646071</v>
+        <v>1.718720513436123</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.309478487155719</v>
+        <v>1.329199340114108</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.048558422885983</v>
+        <v>4.200452883326458</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.34114834559836</v>
+        <v>6.460571821813596</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.292490970268297</v>
+        <v>0.3116928799735883</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1930101955495178</v>
+        <v>0.2132853237226978</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7699485943831499</v>
+        <v>0.7753580517307609</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.400394936270457</v>
+        <v>1.46659220310244</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>2.565010795520345</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.695468903418808</v>
+        <v>3.695468903418806</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.1207623080399441</v>
@@ -1149,7 +1149,7 @@
         <v>0.3928043221176859</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.240829443050994</v>
+        <v>1.240829443050993</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.651093726737095</v>
+        <v>-3.850267854670422</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-6.886906696225156</v>
+        <v>-6.704864719886311</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.236064958911448</v>
+        <v>-1.475121052672721</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.291369285308523</v>
+        <v>-1.411317225417092</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4444698670507911</v>
+        <v>-0.4598797739446874</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5039641873443921</v>
+        <v>-0.491876528030993</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1251462498260567</v>
+        <v>-0.1704403430680692</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2687933537269117</v>
+        <v>-0.274587143656545</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.985078914074935</v>
+        <v>1.99947047947684</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.499204990995398</v>
+        <v>1.359227407951321</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.750357544592396</v>
+        <v>5.795452282578348</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.353428899374783</v>
+        <v>6.401161307062512</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5625692284152113</v>
+        <v>0.584595627861086</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2179448592967737</v>
+        <v>0.2096524997048575</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.387268337209525</v>
+        <v>1.270190968095327</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>6.561075894752398</v>
+        <v>6.756323537948558</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.777921913280028</v>
+        <v>-1.669314935333375</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.45897622824504</v>
+        <v>-2.469312721308408</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5846060649383119</v>
+        <v>-0.5911362255847192</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8218791149732021</v>
+        <v>-0.7969829264059177</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2376941157948677</v>
+        <v>-0.2258438590441151</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.240091354243644</v>
+        <v>-0.2464103726318987</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.07177473854829661</v>
+        <v>-0.07223570578810717</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.105293526979692</v>
+        <v>-0.1053333513191273</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7268958623622384</v>
+        <v>0.7665610200220752</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4312872409456875</v>
+        <v>0.2778087234274446</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.957009515276117</v>
+        <v>2.030383864107937</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.772123324180868</v>
+        <v>1.743865161387879</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1157380302754293</v>
+        <v>0.114474576799523</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05262987798847745</v>
+        <v>0.0332539590430997</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2795004087037884</v>
+        <v>0.2773733884691148</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2864043730781002</v>
+        <v>0.2783098121544378</v>
       </c>
     </row>
     <row r="25">
